--- a/00_レビュー議事録/レビュー議事録(設計).xlsx
+++ b/00_レビュー議事録/レビュー議事録(設計).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{976A33CD-73A9-4937-BBAA-D9A8E14400EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D239259-6EB4-4C46-83A6-1134CF66810F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2910" yWindow="75" windowWidth="17310" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -515,13 +515,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>加えます。</t>
-    <rPh sb="0" eb="1">
-      <t>クワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Reservationinfoのテスト仕様書で、予約表示を一件しか登録してないが、テストケースも一軒しかない。もし３件登録するなら。３件ずつテストをするべきだ。</t>
     <rPh sb="19" eb="22">
       <t>シヨウショ</t>
@@ -562,6 +555,22 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UIの依存関係の矢印を加えます。</t>
+    <rPh sb="3" eb="5">
+      <t>イゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>クワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -949,21 +958,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,33 +1008,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1449,7 +1458,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
@@ -1462,10 +1471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1474,10 +1483,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
@@ -1486,66 +1495,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1554,10 +1563,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1566,10 +1575,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1578,10 +1587,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1590,10 +1599,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1602,38 +1611,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1647,17 +1656,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1668,6 +1666,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1687,8 +1696,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1758,13 +1767,13 @@
         <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>45</v>
@@ -1810,7 +1819,7 @@
         <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>45</v>
@@ -2010,10 +2019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2022,10 +2031,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
@@ -2035,66 +2044,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2103,10 +2112,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -2115,10 +2124,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2127,10 +2136,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2139,44 +2148,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2191,18 +2200,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2212,6 +2209,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2496,21 +2505,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2694,10 +2688,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2719,19 +2738,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/00_レビュー議事録/レビュー議事録(設計).xlsx
+++ b/00_レビュー議事録/レビュー議事録(設計).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D239259-6EB4-4C46-83A6-1134CF66810F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA24859-2A8A-46FA-9966-890C2CF93C0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -958,56 +958,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,10 +1471,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1483,10 +1483,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>46</v>
       </c>
@@ -1495,66 +1495,66 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1563,10 +1563,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1575,10 +1575,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1587,10 +1587,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1599,10 +1599,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1611,38 +1611,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1656,6 +1656,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1666,17 +1677,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2019,10 +2019,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2031,10 +2031,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
@@ -2044,66 +2044,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="23" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2112,10 +2112,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -2124,10 +2124,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2136,10 +2136,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2148,44 +2148,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2200,6 +2200,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2209,18 +2221,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2689,18 +2689,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2722,6 +2722,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2735,12 +2743,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/00_レビュー議事録/レビュー議事録(設計).xlsx
+++ b/00_レビュー議事録/レビュー議事録(設計).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA24859-2A8A-46FA-9966-890C2CF93C0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E44E4D-7A11-4056-8DE9-4B44D7A22C08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>‐</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2020/06/04 (木曜日)
 15:10-15:20</t>
     <rPh sb="12" eb="13">
@@ -571,6 +567,13 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>クワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本日</t>
+    <rPh sb="0" eb="2">
+      <t>ホンジツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -958,21 +961,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -981,33 +1011,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,10 +1474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1483,78 +1486,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="A4" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -1563,10 +1566,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
@@ -1575,10 +1578,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>43</v>
       </c>
@@ -1587,10 +1590,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="30"/>
+      <c r="A12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
@@ -1599,10 +1602,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="30"/>
+      <c r="A13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="22"/>
       <c r="C13" s="13" t="s">
         <v>43</v>
       </c>
@@ -1611,38 +1614,38 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -1656,17 +1659,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1677,6 +1669,17 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1696,8 +1699,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1744,16 +1747,16 @@
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="G2" s="9" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -1761,22 +1764,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1784,22 +1787,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1810,19 +1813,19 @@
         <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2019,10 +2022,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="31"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -2031,10 +2034,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
@@ -2044,66 +2047,66 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
@@ -2112,10 +2115,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
@@ -2124,10 +2127,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="13" t="s">
         <v>24</v>
       </c>
@@ -2136,10 +2139,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="13" t="s">
         <v>28</v>
       </c>
@@ -2148,44 +2151,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
@@ -2200,18 +2203,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2221,6 +2212,18 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2505,6 +2508,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2688,22 +2706,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2719,28 +2746,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>